--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_14_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_14_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-642179.4662681083</v>
+        <v>-645049.7239851195</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12374705.32116078</v>
+        <v>12310601.94076743</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13352212.73744684</v>
+        <v>13363103.67155382</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>49.98929076974853</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>78.19714394499168</v>
+        <v>49.98929076974853</v>
       </c>
       <c r="G5" t="n">
-        <v>78.19714394499168</v>
+        <v>49.98929076974853</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>47.77790332355845</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>21.09814106319019</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>44.0305673099945</v>
       </c>
       <c r="W5" t="n">
-        <v>78.19714394499168</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>49.98929076974853</v>
       </c>
       <c r="G6" t="n">
-        <v>78.19714394499168</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>59.45722232248953</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>46.16773282175521</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,16 +1029,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>41.44823318749552</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>78.19714394499168</v>
+        <v>44.0305673099945</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>49.98929076974853</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>49.98929076974853</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>12.67252672111372</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.942760546273338</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>78.19714394499168</v>
+        <v>49.98929076974853</v>
       </c>
       <c r="F7" t="n">
-        <v>78.19714394499168</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>78.19714394499168</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>49.98929076974853</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>41.81712656661301</v>
+        <v>48.41578724171803</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.11615727386225</v>
+        <v>32.93154411691128</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>187.5255871663199</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>28.33592091243833</v>
+        <v>175.680966266968</v>
       </c>
       <c r="H8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.36529914368134</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
     </row>
     <row r="9">
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>83.41747001683142</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>179.9896253540984</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>23.43375830553084</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.343082173845801</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>130.0198855884744</v>
       </c>
       <c r="T10" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.49830063739223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>240.816602307277</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>42.24406744395651</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1385,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>102.3730459387802</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>147.845161885212</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>4.07055746485247</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.1644063769637</v>
       </c>
       <c r="H14" t="n">
-        <v>291.0864334811147</v>
+        <v>286.8518683469699</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>17.7128576084564</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>200.6028050067863</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9345864167828</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.8154996175246</v>
+        <v>134.5942676301787</v>
       </c>
       <c r="H15" t="n">
-        <v>87.82011688737028</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I15" t="n">
-        <v>12.48317941387803</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,13 +1734,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>124.726353972344</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T15" t="n">
-        <v>189.9750439383062</v>
+        <v>189.0833237787849</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7750651371797</v>
+        <v>225.7605104011701</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30.05084641031507</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.8715743697688</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
-        <v>143.383735426178</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>91.71418672192782</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.6625402892066</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>183.8488525946973</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.097472392356</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2034254480169</v>
+        <v>286.1933087134791</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112665</v>
+        <v>370.3534632974256</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187935</v>
+        <v>271.8974042394589</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0728392684689</v>
+        <v>342.302663254628</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200477</v>
+        <v>369.5499917062068</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894974</v>
+        <v>394.4956673756565</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247497</v>
+        <v>397.7840280109087</v>
       </c>
       <c r="H17" t="n">
-        <v>255.2416659947558</v>
+        <v>274.4714899809149</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295167</v>
+        <v>79.54997040911074</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545722</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645687</v>
+        <v>238.5542080507278</v>
       </c>
       <c r="V17" t="n">
-        <v>296.1420561179208</v>
+        <v>315.3718801040799</v>
       </c>
       <c r="W17" t="n">
-        <v>317.630766365199</v>
+        <v>336.860590351358</v>
       </c>
       <c r="X17" t="n">
-        <v>338.120898326255</v>
+        <v>357.3507223124141</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038395</v>
+        <v>373.8575602899986</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H18" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297232</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464138</v>
+        <v>154.8664427325728</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659983</v>
+        <v>136.2350946521574</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943551</v>
+        <v>57.63381723273947</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707172</v>
+        <v>133.0406696568762</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510281</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442996</v>
+        <v>129.3543293304587</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453001</v>
+        <v>73.75611538068908</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221568</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424832</v>
+        <v>171.4684742286423</v>
       </c>
       <c r="T19" t="n">
-        <v>186.4872700401447</v>
+        <v>205.717094026301</v>
       </c>
       <c r="U19" t="n">
-        <v>254.583106361265</v>
+        <v>273.8129303474241</v>
       </c>
       <c r="V19" t="n">
-        <v>220.5274409716139</v>
+        <v>239.757264957773</v>
       </c>
       <c r="W19" t="n">
-        <v>254.9127959843769</v>
+        <v>274.142619970536</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368231</v>
+        <v>213.3292770229822</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998807</v>
+        <v>206.2042749860398</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112667</v>
+        <v>355.190099861538</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187937</v>
+        <v>337.729149969065</v>
       </c>
       <c r="D20" t="n">
-        <v>323.0728392684691</v>
+        <v>327.1392998187404</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200479</v>
+        <v>354.3866282703192</v>
       </c>
       <c r="F20" t="n">
-        <v>375.2658433894975</v>
+        <v>379.3323039397689</v>
       </c>
       <c r="G20" t="n">
-        <v>378.5542040247498</v>
+        <v>382.6206645750212</v>
       </c>
       <c r="H20" t="n">
-        <v>255.241665994756</v>
+        <v>259.3081265450273</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295185</v>
+        <v>7.456159269420617</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545697</v>
+        <v>173.0590632048438</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645689</v>
+        <v>223.3908446148403</v>
       </c>
       <c r="V20" t="n">
-        <v>296.142056117921</v>
+        <v>300.2085166681924</v>
       </c>
       <c r="W20" t="n">
-        <v>317.6307663651991</v>
+        <v>321.6972269154705</v>
       </c>
       <c r="X20" t="n">
-        <v>338.1208983262551</v>
+        <v>342.1873588765265</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038397</v>
+        <v>358.6941968541111</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297234</v>
+        <v>152.2882383799948</v>
       </c>
       <c r="C22" t="n">
-        <v>135.6366187464139</v>
+        <v>139.7030792966853</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659985</v>
+        <v>121.0717312162698</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943553</v>
+        <v>21.94254815771638</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707174</v>
+        <v>117.8773062209887</v>
       </c>
       <c r="G22" t="n">
-        <v>134.0758985510282</v>
+        <v>138.1423591012996</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442998</v>
+        <v>114.1909658945711</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453019</v>
+        <v>58.59275194480153</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221585</v>
+        <v>46.11393285248719</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2386502424811</v>
+        <v>156.3051107927547</v>
       </c>
       <c r="T22" t="n">
-        <v>186.4872700401421</v>
+        <v>190.5537305904134</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612652</v>
+        <v>258.6495669115366</v>
       </c>
       <c r="V22" t="n">
-        <v>220.5274409716141</v>
+        <v>224.5939015218855</v>
       </c>
       <c r="W22" t="n">
-        <v>254.9127959843771</v>
+        <v>258.9792565346485</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368233</v>
+        <v>198.1659135870946</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998809</v>
+        <v>191.0409115501523</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112667</v>
+        <v>355.190099861538</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187937</v>
+        <v>337.729149969065</v>
       </c>
       <c r="D23" t="n">
-        <v>323.0728392684691</v>
+        <v>327.1392998187404</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200479</v>
+        <v>354.3866282703192</v>
       </c>
       <c r="F23" t="n">
-        <v>375.2658433894975</v>
+        <v>379.3323039397689</v>
       </c>
       <c r="G23" t="n">
-        <v>378.5542040247498</v>
+        <v>382.6206645750212</v>
       </c>
       <c r="H23" t="n">
-        <v>255.241665994756</v>
+        <v>259.3081265450273</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295185</v>
+        <v>64.38660697322319</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545724</v>
+        <v>173.0590632048438</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645689</v>
+        <v>223.3908446148403</v>
       </c>
       <c r="V23" t="n">
-        <v>296.142056117921</v>
+        <v>300.2085166681924</v>
       </c>
       <c r="W23" t="n">
-        <v>317.6307663651991</v>
+        <v>321.6972269154705</v>
       </c>
       <c r="X23" t="n">
-        <v>338.1208983262551</v>
+        <v>342.1873588765265</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038397</v>
+        <v>358.6941968541111</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.2217778297234</v>
+        <v>152.2882383799948</v>
       </c>
       <c r="C25" t="n">
-        <v>135.6366187464139</v>
+        <v>139.7030792966853</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659963</v>
+        <v>24.12405852935922</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943553</v>
+        <v>118.8902208446266</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707174</v>
+        <v>117.8773062209887</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510282</v>
+        <v>138.1423591012996</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442998</v>
+        <v>114.1909658945711</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453019</v>
+        <v>58.59275194480153</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221585</v>
+        <v>46.11393285248719</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424834</v>
+        <v>156.3051107927547</v>
       </c>
       <c r="T25" t="n">
-        <v>186.4872700401421</v>
+        <v>190.5537305904134</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612652</v>
+        <v>258.6495669115366</v>
       </c>
       <c r="V25" t="n">
-        <v>220.5274409716141</v>
+        <v>224.5939015218855</v>
       </c>
       <c r="W25" t="n">
-        <v>254.9127959843771</v>
+        <v>258.9792565346485</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368233</v>
+        <v>198.1659135870946</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998809</v>
+        <v>191.0409115501523</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112667</v>
+        <v>355.190099861538</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187937</v>
+        <v>337.729149969065</v>
       </c>
       <c r="D26" t="n">
-        <v>323.0728392684691</v>
+        <v>327.1392998187404</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200479</v>
+        <v>354.3866282703192</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894975</v>
+        <v>379.3323039397689</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247498</v>
+        <v>382.6206645750212</v>
       </c>
       <c r="H26" t="n">
-        <v>255.241665994756</v>
+        <v>259.3081265450273</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295185</v>
+        <v>64.38660697322319</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545724</v>
+        <v>173.0590632048438</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645689</v>
+        <v>223.3908446148403</v>
       </c>
       <c r="V26" t="n">
-        <v>296.142056117921</v>
+        <v>300.2085166681924</v>
       </c>
       <c r="W26" t="n">
-        <v>317.6307663651991</v>
+        <v>321.6972269154705</v>
       </c>
       <c r="X26" t="n">
-        <v>338.1208983262551</v>
+        <v>342.1873588765265</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038397</v>
+        <v>358.6941968541111</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297234</v>
+        <v>152.2882383799948</v>
       </c>
       <c r="C28" t="n">
-        <v>135.6366187464139</v>
+        <v>139.7030792966853</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659985</v>
+        <v>121.0717312162698</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943553</v>
+        <v>118.8902208446266</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707174</v>
+        <v>20.92963353407802</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510261</v>
+        <v>138.1423591012996</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442998</v>
+        <v>114.1909658945711</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453019</v>
+        <v>58.59275194480153</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221585</v>
+        <v>46.11393285248719</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424834</v>
+        <v>156.3051107927547</v>
       </c>
       <c r="T28" t="n">
-        <v>186.4872700401421</v>
+        <v>190.5537305904134</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612652</v>
+        <v>258.6495669115366</v>
       </c>
       <c r="V28" t="n">
-        <v>220.5274409716141</v>
+        <v>224.5939015218855</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843771</v>
+        <v>258.9792565346485</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368233</v>
+        <v>198.1659135870946</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998809</v>
+        <v>191.0409115501523</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112667</v>
+        <v>355.190099861538</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187937</v>
+        <v>337.729149969065</v>
       </c>
       <c r="D29" t="n">
-        <v>323.0728392684691</v>
+        <v>327.1392998187404</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200479</v>
+        <v>354.3866282703192</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894975</v>
+        <v>379.3323039397689</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247498</v>
+        <v>382.6206645750212</v>
       </c>
       <c r="H29" t="n">
-        <v>255.241665994756</v>
+        <v>259.3081265450273</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295185</v>
+        <v>64.38660697322319</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545724</v>
+        <v>173.0590632048438</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645689</v>
+        <v>223.3908446148403</v>
       </c>
       <c r="V29" t="n">
-        <v>296.142056117921</v>
+        <v>300.2085166681924</v>
       </c>
       <c r="W29" t="n">
-        <v>317.6307663651991</v>
+        <v>321.6972269154705</v>
       </c>
       <c r="X29" t="n">
-        <v>338.1208983262551</v>
+        <v>342.1873588765265</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038397</v>
+        <v>358.6941968541111</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297234</v>
+        <v>152.2882383799948</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464139</v>
+        <v>139.7030792966853</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659985</v>
+        <v>121.0717312162698</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943536</v>
+        <v>21.94254815771583</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707174</v>
+        <v>117.8773062209887</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510282</v>
+        <v>138.1423591012996</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442998</v>
+        <v>114.1909658945711</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453019</v>
+        <v>58.59275194480153</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221585</v>
+        <v>46.11393285248719</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424834</v>
+        <v>156.3051107927547</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401421</v>
+        <v>190.5537305904134</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612652</v>
+        <v>258.6495669115366</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716141</v>
+        <v>224.5939015218855</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843771</v>
+        <v>258.9792565346485</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368233</v>
+        <v>198.1659135870946</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998809</v>
+        <v>191.0409115501523</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D32" t="n">
         <v>323.072839268469</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V32" t="n">
         <v>296.142056117921</v>
@@ -3095,7 +3095,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="33">
@@ -3193,10 +3193,10 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707162</v>
       </c>
       <c r="G34" t="n">
         <v>134.0758985510282</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U34" t="n">
         <v>254.5831063612652</v>
@@ -3253,7 +3253,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3266,22 @@
         <v>351.1236393112665</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187934</v>
       </c>
       <c r="D35" t="n">
-        <v>323.0728392684689</v>
+        <v>323.0728392684688</v>
       </c>
       <c r="E35" t="n">
         <v>350.3201677200477</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894973</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247496</v>
       </c>
       <c r="H35" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947557</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295167</v>
+        <v>60.32014642295161</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545722</v>
@@ -3326,10 +3326,10 @@
         <v>296.1420561179208</v>
       </c>
       <c r="W35" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651989</v>
       </c>
       <c r="X35" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262549</v>
       </c>
       <c r="Y35" t="n">
         <v>354.6277363038395</v>
@@ -3424,25 +3424,25 @@
         <v>148.2217778297232</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464137</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706660008</v>
+        <v>117.0052706660016</v>
       </c>
       <c r="E37" t="n">
         <v>114.8237602943551</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707171</v>
       </c>
       <c r="G37" t="n">
-        <v>134.0758985510281</v>
+        <v>134.075898551028</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442995</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453001</v>
+        <v>54.52629139452995</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221567</v>
+        <v>42.04747230221561</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424831</v>
       </c>
       <c r="T37" t="n">
         <v>186.4872700401419</v>
@@ -3487,7 +3487,7 @@
         <v>254.9127959843769</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368231</v>
+        <v>194.099453036823</v>
       </c>
       <c r="Y37" t="n">
         <v>186.9744509998807</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U38" t="n">
         <v>219.3243840645688</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C40" t="n">
         <v>135.6366187464139</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221603</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3715,13 +3715,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V40" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W40" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X40" t="n">
         <v>194.0994530368232</v>
@@ -3758,7 +3758,7 @@
         <v>255.2416659947559</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-1.034697381508777e-12</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V41" t="n">
         <v>296.142056117921</v>
@@ -3907,7 +3907,7 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707171</v>
       </c>
       <c r="G43" t="n">
         <v>134.0758985510282</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221648</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U43" t="n">
         <v>254.5831063612652</v>
@@ -3964,7 +3964,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V44" t="n">
         <v>296.142056117921</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U46" t="n">
         <v>254.5831063612652</v>
@@ -4201,7 +4201,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
   </sheetData>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>164.2297996872997</v>
+        <v>155.4818425638481</v>
       </c>
       <c r="C5" t="n">
-        <v>164.2297996872997</v>
+        <v>104.9876094630921</v>
       </c>
       <c r="D5" t="n">
-        <v>164.2297996872997</v>
+        <v>104.9876094630921</v>
       </c>
       <c r="E5" t="n">
-        <v>164.2297996872997</v>
+        <v>104.9876094630921</v>
       </c>
       <c r="F5" t="n">
-        <v>85.24278560144953</v>
+        <v>54.49337636233597</v>
       </c>
       <c r="G5" t="n">
-        <v>6.255771515599335</v>
+        <v>3.999143261579882</v>
       </c>
       <c r="H5" t="n">
-        <v>6.255771515599335</v>
+        <v>3.999143261579882</v>
       </c>
       <c r="I5" t="n">
-        <v>6.255771515599335</v>
+        <v>3.999143261579882</v>
       </c>
       <c r="J5" t="n">
-        <v>83.6709440211411</v>
+        <v>53.48854112363092</v>
       </c>
       <c r="K5" t="n">
-        <v>132.0795282216691</v>
+        <v>53.48854112363092</v>
       </c>
       <c r="L5" t="n">
-        <v>152.5804227122348</v>
+        <v>74.07632247437844</v>
       </c>
       <c r="M5" t="n">
-        <v>207.0610553765671</v>
+        <v>92.38695521712958</v>
       </c>
       <c r="N5" t="n">
-        <v>267.0370500139889</v>
+        <v>141.8763530791806</v>
       </c>
       <c r="O5" t="n">
-        <v>310.3354197836795</v>
+        <v>150.4677652169431</v>
       </c>
       <c r="P5" t="n">
-        <v>312.7885757799667</v>
+        <v>199.9571630789941</v>
       </c>
       <c r="Q5" t="n">
-        <v>312.7885757799667</v>
+        <v>199.9571630789941</v>
       </c>
       <c r="R5" t="n">
-        <v>264.5280673723319</v>
+        <v>199.9571630789941</v>
       </c>
       <c r="S5" t="n">
-        <v>264.5280673723319</v>
+        <v>199.9571630789941</v>
       </c>
       <c r="T5" t="n">
-        <v>243.2168137731499</v>
+        <v>199.9571630789941</v>
       </c>
       <c r="U5" t="n">
-        <v>243.2168137731499</v>
+        <v>199.9571630789941</v>
       </c>
       <c r="V5" t="n">
-        <v>243.2168137731499</v>
+        <v>155.4818425638481</v>
       </c>
       <c r="W5" t="n">
-        <v>164.2297996872997</v>
+        <v>155.4818425638481</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2297996872997</v>
+        <v>155.4818425638481</v>
       </c>
       <c r="Y5" t="n">
-        <v>164.2297996872997</v>
+        <v>155.4818425638481</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145.3005859271966</v>
+        <v>54.49337636233597</v>
       </c>
       <c r="C6" t="n">
-        <v>145.3005859271966</v>
+        <v>54.49337636233597</v>
       </c>
       <c r="D6" t="n">
-        <v>145.3005859271966</v>
+        <v>54.49337636233597</v>
       </c>
       <c r="E6" t="n">
-        <v>145.3005859271966</v>
+        <v>54.49337636233597</v>
       </c>
       <c r="F6" t="n">
-        <v>145.3005859271966</v>
+        <v>3.999143261579882</v>
       </c>
       <c r="G6" t="n">
-        <v>66.31357184134635</v>
+        <v>3.999143261579882</v>
       </c>
       <c r="H6" t="n">
-        <v>66.31357184134635</v>
+        <v>3.999143261579882</v>
       </c>
       <c r="I6" t="n">
-        <v>6.255771515599335</v>
+        <v>3.999143261579882</v>
       </c>
       <c r="J6" t="n">
-        <v>10.24414448386193</v>
+        <v>3.999143261579882</v>
       </c>
       <c r="K6" t="n">
-        <v>12.794684825236</v>
+        <v>3.999143261579882</v>
       </c>
       <c r="L6" t="n">
-        <v>62.54674222559557</v>
+        <v>52.83573589164156</v>
       </c>
       <c r="M6" t="n">
-        <v>139.9619147311373</v>
+        <v>102.3251337536926</v>
       </c>
       <c r="N6" t="n">
-        <v>217.3770872366791</v>
+        <v>151.8145316157436</v>
       </c>
       <c r="O6" t="n">
-        <v>281.0325340179527</v>
+        <v>189.2472071128656</v>
       </c>
       <c r="P6" t="n">
-        <v>312.7885757799667</v>
+        <v>199.9571630789941</v>
       </c>
       <c r="Q6" t="n">
-        <v>312.7885757799667</v>
+        <v>199.9571630789941</v>
       </c>
       <c r="R6" t="n">
-        <v>266.1545022226382</v>
+        <v>199.9571630789941</v>
       </c>
       <c r="S6" t="n">
-        <v>266.1545022226382</v>
+        <v>199.9571630789941</v>
       </c>
       <c r="T6" t="n">
-        <v>266.1545022226382</v>
+        <v>199.9571630789941</v>
       </c>
       <c r="U6" t="n">
-        <v>224.2876000130468</v>
+        <v>199.9571630789941</v>
       </c>
       <c r="V6" t="n">
-        <v>145.3005859271966</v>
+        <v>155.4818425638481</v>
       </c>
       <c r="W6" t="n">
-        <v>145.3005859271966</v>
+        <v>104.9876094630921</v>
       </c>
       <c r="X6" t="n">
-        <v>145.3005859271966</v>
+        <v>54.49337636233597</v>
       </c>
       <c r="Y6" t="n">
-        <v>145.3005859271966</v>
+        <v>54.49337636233597</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>287.4187199477826</v>
+        <v>153.8924450607871</v>
       </c>
       <c r="C7" t="n">
-        <v>287.4187199477826</v>
+        <v>153.8924450607871</v>
       </c>
       <c r="D7" t="n">
-        <v>285.4563355576075</v>
+        <v>153.8924450607871</v>
       </c>
       <c r="E7" t="n">
-        <v>206.4693214717573</v>
+        <v>103.3982119600309</v>
       </c>
       <c r="F7" t="n">
-        <v>127.4823073859071</v>
+        <v>103.3982119600309</v>
       </c>
       <c r="G7" t="n">
-        <v>48.49529330005693</v>
+        <v>103.3982119600309</v>
       </c>
       <c r="H7" t="n">
-        <v>48.49529330005693</v>
+        <v>52.90397885927486</v>
       </c>
       <c r="I7" t="n">
-        <v>48.49529330005693</v>
+        <v>52.90397885927486</v>
       </c>
       <c r="J7" t="n">
-        <v>6.255771515599335</v>
+        <v>3.999143261579882</v>
       </c>
       <c r="K7" t="n">
-        <v>68.06140741317861</v>
+        <v>3.999143261579882</v>
       </c>
       <c r="L7" t="n">
-        <v>145.4765799187204</v>
+        <v>51.48896949284097</v>
       </c>
       <c r="M7" t="n">
-        <v>145.4765799187204</v>
+        <v>100.978367354892</v>
       </c>
       <c r="N7" t="n">
-        <v>157.9582307688832</v>
+        <v>150.4677652169431</v>
       </c>
       <c r="O7" t="n">
-        <v>235.373403274425</v>
+        <v>150.4677652169431</v>
       </c>
       <c r="P7" t="n">
-        <v>312.7885757799667</v>
+        <v>199.9571630789941</v>
       </c>
       <c r="Q7" t="n">
-        <v>287.4187199477826</v>
+        <v>166.6929771023161</v>
       </c>
       <c r="R7" t="n">
-        <v>287.4187199477826</v>
+        <v>166.6929771023161</v>
       </c>
       <c r="S7" t="n">
-        <v>287.4187199477826</v>
+        <v>166.6929771023161</v>
       </c>
       <c r="T7" t="n">
-        <v>287.4187199477826</v>
+        <v>166.6929771023161</v>
       </c>
       <c r="U7" t="n">
-        <v>287.4187199477826</v>
+        <v>166.6929771023161</v>
       </c>
       <c r="V7" t="n">
-        <v>287.4187199477826</v>
+        <v>166.6929771023161</v>
       </c>
       <c r="W7" t="n">
-        <v>287.4187199477826</v>
+        <v>166.6929771023161</v>
       </c>
       <c r="X7" t="n">
-        <v>287.4187199477826</v>
+        <v>166.6929771023161</v>
       </c>
       <c r="Y7" t="n">
-        <v>287.4187199477826</v>
+        <v>166.6929771023161</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>738.6222485201467</v>
+        <v>199.4030692042949</v>
       </c>
       <c r="C8" t="n">
-        <v>549.202463503662</v>
+        <v>199.4030692042949</v>
       </c>
       <c r="D8" t="n">
-        <v>549.202463503662</v>
+        <v>199.4030692042949</v>
       </c>
       <c r="E8" t="n">
-        <v>549.202463503662</v>
+        <v>199.4030692042949</v>
       </c>
       <c r="F8" t="n">
-        <v>359.7826784871772</v>
+        <v>192.4575684550914</v>
       </c>
       <c r="G8" t="n">
-        <v>331.1605361513809</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H8" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159059007</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079186</v>
+        <v>191.874309407919</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123828</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985582</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020263</v>
+        <v>734.461172602026</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R8" t="n">
-        <v>738.6222485201467</v>
+        <v>738.6222485201461</v>
       </c>
       <c r="S8" t="n">
-        <v>738.6222485201467</v>
+        <v>578.242639237264</v>
       </c>
       <c r="T8" t="n">
-        <v>738.6222485201467</v>
+        <v>578.242639237264</v>
       </c>
       <c r="U8" t="n">
-        <v>738.6222485201467</v>
+        <v>578.242639237264</v>
       </c>
       <c r="V8" t="n">
-        <v>738.6222485201467</v>
+        <v>388.8228542207794</v>
       </c>
       <c r="W8" t="n">
-        <v>738.6222485201467</v>
+        <v>388.8228542207794</v>
       </c>
       <c r="X8" t="n">
-        <v>738.6222485201467</v>
+        <v>388.8228542207794</v>
       </c>
       <c r="Y8" t="n">
-        <v>738.6222485201467</v>
+        <v>199.4030692042949</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>581.8870116452115</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="C9" t="n">
-        <v>407.4339823640845</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D9" t="n">
-        <v>258.4995727028332</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E9" t="n">
-        <v>99.26211769737773</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772649</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N9" t="n">
         <v>512.5000587546598</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476343</v>
       </c>
       <c r="P9" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017056</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="T9" t="n">
-        <v>750.1023486652795</v>
+        <v>568.2946462874017</v>
       </c>
       <c r="U9" t="n">
-        <v>750.1023486652795</v>
+        <v>568.2946462874017</v>
       </c>
       <c r="V9" t="n">
-        <v>750.1023486652795</v>
+        <v>568.2946462874017</v>
       </c>
       <c r="W9" t="n">
-        <v>750.1023486652795</v>
+        <v>568.2946462874017</v>
       </c>
       <c r="X9" t="n">
-        <v>750.1023486652795</v>
+        <v>378.8748612709172</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.1023486652795</v>
+        <v>189.4550762544326</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>354.2512808431807</v>
+        <v>481.2282705107227</v>
       </c>
       <c r="C10" t="n">
-        <v>354.2512808431807</v>
+        <v>481.2282705107227</v>
       </c>
       <c r="D10" t="n">
-        <v>354.2512808431807</v>
+        <v>481.2282705107227</v>
       </c>
       <c r="E10" t="n">
-        <v>354.2512808431807</v>
+        <v>481.2282705107227</v>
       </c>
       <c r="F10" t="n">
-        <v>207.3613333452703</v>
+        <v>334.3383230128124</v>
       </c>
       <c r="G10" t="n">
-        <v>38.67250990818523</v>
+        <v>165.6494995757274</v>
       </c>
       <c r="H10" t="n">
-        <v>38.67250990818523</v>
+        <v>165.6494995757274</v>
       </c>
       <c r="I10" t="n">
-        <v>38.67250990818523</v>
+        <v>38.67250990818526</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7151088594234</v>
+        <v>106.7151088594233</v>
       </c>
       <c r="L10" t="n">
-        <v>279.6026869745584</v>
+        <v>279.6026869745582</v>
       </c>
       <c r="M10" t="n">
-        <v>295.5529562639638</v>
+        <v>295.5529562639635</v>
       </c>
       <c r="N10" t="n">
-        <v>471.6341805242515</v>
+        <v>471.6341805242512</v>
       </c>
       <c r="O10" t="n">
-        <v>634.3723839608017</v>
+        <v>634.3723839608012</v>
       </c>
       <c r="P10" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="Q10" t="n">
-        <v>746.7254979846272</v>
+        <v>746.7254979846265</v>
       </c>
       <c r="R10" t="n">
-        <v>746.7254979846272</v>
+        <v>612.5614882768584</v>
       </c>
       <c r="S10" t="n">
-        <v>746.7254979846272</v>
+        <v>481.2282705107227</v>
       </c>
       <c r="T10" t="n">
-        <v>557.3057129681424</v>
+        <v>481.2282705107227</v>
       </c>
       <c r="U10" t="n">
-        <v>557.3057129681424</v>
+        <v>481.2282705107227</v>
       </c>
       <c r="V10" t="n">
-        <v>557.3057129681424</v>
+        <v>481.2282705107227</v>
       </c>
       <c r="W10" t="n">
-        <v>557.3057129681424</v>
+        <v>481.2282705107227</v>
       </c>
       <c r="X10" t="n">
-        <v>367.8859279516577</v>
+        <v>481.2282705107227</v>
       </c>
       <c r="Y10" t="n">
-        <v>354.2512808431807</v>
+        <v>481.2282705107227</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1921.870414581994</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="C11" t="n">
-        <v>1678.62132134232</v>
+        <v>1660.609998322719</v>
       </c>
       <c r="D11" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>934.5673701373255</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F11" t="n">
-        <v>523.581465347718</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927148</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W11" t="n">
-        <v>3072.075344883007</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X11" t="n">
-        <v>2698.609586621928</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y11" t="n">
-        <v>2308.470254646116</v>
+        <v>2029.57251526313</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031484</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.8689899442146</v>
+        <v>848.0708164780107</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8689899442146</v>
+        <v>679.1346335501038</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7523505318788</v>
+        <v>529.017994137768</v>
       </c>
       <c r="E13" t="n">
-        <v>483.8392569494856</v>
+        <v>381.1049005553749</v>
       </c>
       <c r="F13" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
         <v>315.6219318279954</v>
@@ -5233,16 +5233,16 @@
         <v>1735.608663915319</v>
       </c>
       <c r="V13" t="n">
-        <v>1480.924175709432</v>
+        <v>1586.270116556519</v>
       </c>
       <c r="W13" t="n">
-        <v>1191.507005672472</v>
+        <v>1296.852946519558</v>
       </c>
       <c r="X13" t="n">
-        <v>963.5174547744543</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.5174547744543</v>
+        <v>848.0708164780107</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1892.926161618902</v>
+        <v>1958.885600665789</v>
       </c>
       <c r="C14" t="n">
-        <v>1523.96364467849</v>
+        <v>1589.923083725378</v>
       </c>
       <c r="D14" t="n">
-        <v>1165.69794607174</v>
+        <v>1585.811409518456</v>
       </c>
       <c r="E14" t="n">
-        <v>779.9096934734955</v>
+        <v>1200.023156920212</v>
       </c>
       <c r="F14" t="n">
-        <v>368.9237886838881</v>
+        <v>789.0372521306047</v>
       </c>
       <c r="G14" t="n">
-        <v>368.9237886838881</v>
+        <v>374.7297709417524</v>
       </c>
       <c r="H14" t="n">
-        <v>74.89708819791356</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I14" t="n">
-        <v>74.89708819791356</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J14" t="n">
-        <v>292.667211312249</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K14" t="n">
-        <v>669.7866930257901</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L14" t="n">
-        <v>1174.538519135056</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M14" t="n">
-        <v>1767.841618390596</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N14" t="n">
-        <v>2375.358790450216</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O14" t="n">
-        <v>2935.684767619874</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P14" t="n">
-        <v>3379.409024675576</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q14" t="n">
-        <v>3664.454715777632</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R14" t="n">
-        <v>3744.854409895678</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S14" t="n">
-        <v>3726.9626345336</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="T14" t="n">
-        <v>3726.9626345336</v>
+        <v>4046.391352789359</v>
       </c>
       <c r="U14" t="n">
-        <v>3726.9626345336</v>
+        <v>3792.922073580487</v>
       </c>
       <c r="V14" t="n">
-        <v>3395.899747190029</v>
+        <v>3461.859186236916</v>
       </c>
       <c r="W14" t="n">
-        <v>3043.131091919915</v>
+        <v>3109.090530966802</v>
       </c>
       <c r="X14" t="n">
-        <v>2669.665333658835</v>
+        <v>2735.624772705723</v>
       </c>
       <c r="Y14" t="n">
-        <v>2279.526001683024</v>
+        <v>2345.485440729911</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5502733701481</v>
+        <v>941.5579923844783</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0972440890212</v>
+        <v>767.1049631033513</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1628344277699</v>
+        <v>618.1705534421001</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9253794223143</v>
+        <v>458.9330984366445</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3908214491993</v>
+        <v>312.3985404635295</v>
       </c>
       <c r="G15" t="n">
-        <v>176.2135491082654</v>
+        <v>176.4447347764803</v>
       </c>
       <c r="H15" t="n">
-        <v>87.5063603331439</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I15" t="n">
-        <v>74.89708819791356</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J15" t="n">
-        <v>185.7816346931233</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K15" t="n">
-        <v>185.7816346931233</v>
+        <v>326.5159252754111</v>
       </c>
       <c r="L15" t="n">
-        <v>592.0251386812145</v>
+        <v>326.5159252754111</v>
       </c>
       <c r="M15" t="n">
-        <v>1085.449014739392</v>
+        <v>875.4343898857002</v>
       </c>
       <c r="N15" t="n">
-        <v>1606.340997484011</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O15" t="n">
-        <v>2060.635601987629</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P15" t="n">
-        <v>2405.91400717832</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q15" t="n">
-        <v>2560.702695581082</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R15" t="n">
-        <v>2560.702695581082</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.716479447401</v>
+        <v>2433.808769274326</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.822495671334</v>
+        <v>2242.815512932119</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.766874320647</v>
+        <v>2014.774593334977</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.614766088904</v>
+        <v>1779.622485103235</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.377409360703</v>
+        <v>1525.385128375033</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.52590915517</v>
+        <v>1317.5336281695</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.765610390216</v>
+        <v>1109.773329404546</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>774.7198227306159</v>
+        <v>569.189383367479</v>
       </c>
       <c r="C16" t="n">
-        <v>774.7198227306159</v>
+        <v>400.2532004395721</v>
       </c>
       <c r="D16" t="n">
-        <v>774.7198227306159</v>
+        <v>400.2532004395721</v>
       </c>
       <c r="E16" t="n">
-        <v>626.8067291482228</v>
+        <v>252.340106857179</v>
       </c>
       <c r="F16" t="n">
-        <v>479.9167816503121</v>
+        <v>252.340106857179</v>
       </c>
       <c r="G16" t="n">
-        <v>312.3697368323639</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="H16" t="n">
-        <v>167.5376808463255</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I16" t="n">
-        <v>74.89708819791356</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J16" t="n">
-        <v>130.8150132557831</v>
+        <v>153.8801783755866</v>
       </c>
       <c r="K16" t="n">
-        <v>352.5421781472768</v>
+        <v>396.9405013869776</v>
       </c>
       <c r="L16" t="n">
-        <v>691.8030458203086</v>
+        <v>763.5004667042033</v>
       </c>
       <c r="M16" t="n">
-        <v>1059.895185992358</v>
+        <v>1160.375677726126</v>
       </c>
       <c r="N16" t="n">
-        <v>1424.669534219355</v>
+        <v>1553.248699711514</v>
       </c>
       <c r="O16" t="n">
-        <v>1745.581389731617</v>
+        <v>1900.114228341785</v>
       </c>
       <c r="P16" t="n">
-        <v>1996.656239129641</v>
+        <v>2173.396928727846</v>
       </c>
       <c r="Q16" t="n">
-        <v>2087.052370467871</v>
+        <v>2279.168624967671</v>
       </c>
       <c r="R16" t="n">
-        <v>2087.052370467871</v>
+        <v>2210.822624675543</v>
       </c>
       <c r="S16" t="n">
-        <v>2087.052370467871</v>
+        <v>2025.116712963727</v>
       </c>
       <c r="T16" t="n">
-        <v>2087.052370467871</v>
+        <v>1804.816235799731</v>
       </c>
       <c r="U16" t="n">
-        <v>1797.95800132846</v>
+        <v>1515.732085584096</v>
       </c>
       <c r="V16" t="n">
-        <v>1543.273513122573</v>
+        <v>1261.04759737821</v>
       </c>
       <c r="W16" t="n">
-        <v>1253.856343085613</v>
+        <v>971.6304273412488</v>
       </c>
       <c r="X16" t="n">
-        <v>1025.866792187596</v>
+        <v>971.6304273412488</v>
       </c>
       <c r="Y16" t="n">
-        <v>805.0742130440655</v>
+        <v>750.8378481977187</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112806</v>
+        <v>2156.193787326402</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497863</v>
+        <v>1881.549944660283</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216581</v>
+        <v>1535.789678746517</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943806</v>
+        <v>1162.506858841258</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796673</v>
+        <v>764.0263867446348</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162837</v>
+        <v>362.2243382487677</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511623</v>
       </c>
       <c r="J17" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M17" t="n">
         <v>2001.213713746739</v>
@@ -5528,37 +5528,37 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924545</v>
+        <v>4168.666943292063</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283563</v>
+        <v>4168.666943292063</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.85162740016</v>
+        <v>3927.703096776176</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.718237382058</v>
+        <v>3609.14564212559</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437413</v>
+        <v>3268.882419548461</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501802</v>
+        <v>2907.922093980366</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.132983851458</v>
+        <v>2530.288194697539</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511619</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>84.98040897511619</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L18" t="n">
-        <v>538.7790385694435</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M18" t="n">
-        <v>1087.697503179732</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1665.552851106135</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O18" t="n">
-        <v>2171.957806054384</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P18" t="n">
         <v>2555.644190323788</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.862419750209</v>
+        <v>776.7849231018778</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477709</v>
+        <v>620.3541728669558</v>
       </c>
       <c r="D19" t="n">
-        <v>617.668592060904</v>
+        <v>482.7429661476046</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039796</v>
+        <v>424.5269891448374</v>
       </c>
       <c r="F19" t="n">
-        <v>386.724545631538</v>
+        <v>290.1424743399119</v>
       </c>
       <c r="G19" t="n">
-        <v>251.294345074944</v>
+        <v>290.1424743399119</v>
       </c>
       <c r="H19" t="n">
-        <v>140.057470989793</v>
+        <v>159.4815356222769</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042785</v>
+        <v>166.1367529579811</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443614</v>
+        <v>421.4536505517664</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902788</v>
+        <v>800.2701904513865</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040893</v>
+        <v>1209.401976055703</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354973</v>
+        <v>1614.531572623486</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313936</v>
+        <v>1973.653675836151</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028689</v>
+        <v>2259.192950804606</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597205</v>
+        <v>2377.221221626826</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352543</v>
+        <v>2377.221221626826</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966197</v>
+        <v>2204.020742607995</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127667</v>
+        <v>1996.225698136984</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.7471862375</v>
+        <v>1719.646980614333</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357082</v>
+        <v>1477.467925101431</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.50452264559</v>
+        <v>1200.556187757456</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073041</v>
+        <v>985.072069552423</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.58138725498</v>
+        <v>776.7849231018778</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112807</v>
+        <v>2146.107856568997</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497864</v>
+        <v>1804.967301044689</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216582</v>
+        <v>1474.523563854042</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943806</v>
+        <v>1116.557272671902</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796675</v>
+        <v>733.3933292983975</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162838</v>
+        <v>346.9078095256488</v>
       </c>
       <c r="H20" t="n">
         <v>84.98040897511619</v>
@@ -5750,13 +5750,13 @@
         <v>84.98040897511619</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951452</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050961</v>
       </c>
       <c r="M20" t="n">
         <v>2001.213713746738</v>
@@ -5765,37 +5765,37 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R20" t="n">
         <v>4249.020448755809</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924545</v>
+        <v>4241.488974746293</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283565</v>
+        <v>4066.681840195946</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400162</v>
+        <v>3841.034522403178</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.71823738206</v>
+        <v>3537.793596475711</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437414</v>
+        <v>3212.8469026217</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501803</v>
+        <v>2867.203105776724</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.13298385146</v>
+        <v>2504.885735217015</v>
       </c>
     </row>
     <row r="21">
@@ -5841,16 +5841,16 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>2024.474257345018</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O21" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P21" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.862419750211</v>
+        <v>803.6882290077751</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477726</v>
+        <v>662.5740074959718</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609054</v>
+        <v>540.2793294997397</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039809</v>
+        <v>518.1151394414403</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315391</v>
+        <v>399.0471533596336</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749449</v>
+        <v>259.5094168936744</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897932</v>
+        <v>144.1650068991581</v>
       </c>
       <c r="I22" t="n">
         <v>84.98040897511619</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042783</v>
+        <v>181.1484827595097</v>
       </c>
       <c r="K22" t="n">
-        <v>459.528702044361</v>
+        <v>451.4771101548238</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902785</v>
+        <v>845.3053798559727</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040893</v>
+        <v>1269.448895261819</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.719201354972</v>
+        <v>1689.59022163113</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313935</v>
+        <v>2063.724054645324</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028688</v>
+        <v>2364.275059415308</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597204</v>
+        <v>2497.315060039055</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352542</v>
+        <v>2450.735329885028</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966197</v>
+        <v>2292.851379589316</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.90183912767</v>
+        <v>2100.372863841424</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237503</v>
+        <v>1839.110675041892</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357085</v>
+        <v>1612.248148252108</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645593</v>
+        <v>1350.652939631251</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073044</v>
+        <v>1150.485350149338</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254982</v>
+        <v>957.5147324219113</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112807</v>
+        <v>2147.281438257388</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497864</v>
+        <v>1806.14088273308</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216582</v>
+        <v>1475.697145542433</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943806</v>
+        <v>1117.730854360292</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796671</v>
+        <v>734.5669109867881</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162839</v>
+        <v>348.0813912140389</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511625</v>
+        <v>86.15399066350626</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511625</v>
+        <v>86.15399066350626</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076836</v>
+        <v>396.1723860271862</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951448</v>
+        <v>825.3622731146475</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050963</v>
+        <v>1394.712041470465</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746738</v>
+        <v>2059.892798166241</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889755</v>
+        <v>2740.450683309257</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233287</v>
+        <v>3369.74693465279</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612703</v>
+        <v>3872.335725032206</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767227</v>
+        <v>4201.58622918673</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755812</v>
+        <v>4307.699533175313</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924547</v>
+        <v>4242.662556434684</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283565</v>
+        <v>4067.855421884336</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400162</v>
+        <v>3842.208104091568</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.71823738206</v>
+        <v>3538.967178164101</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437414</v>
+        <v>3214.020484310091</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501803</v>
+        <v>2868.376687465114</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.13298385146</v>
+        <v>2506.059316905406</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5579923844783</v>
+        <v>942.7315740728683</v>
       </c>
       <c r="C24" t="n">
-        <v>767.1049631033513</v>
+        <v>768.2785447917413</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1705534421001</v>
+        <v>619.34413513049</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9330984366445</v>
+        <v>460.1066801250346</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3985404635295</v>
+        <v>313.5721221519195</v>
       </c>
       <c r="G24" t="n">
-        <v>176.4447347764803</v>
+        <v>177.6183164648704</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177182</v>
+        <v>91.06934511016183</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511625</v>
+        <v>86.15399066350626</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511625</v>
+        <v>217.7310926719759</v>
       </c>
       <c r="K24" t="n">
-        <v>84.98040897511625</v>
+        <v>520.7721420218403</v>
       </c>
       <c r="L24" t="n">
-        <v>301.7509472448914</v>
+        <v>974.5707716161677</v>
       </c>
       <c r="M24" t="n">
-        <v>850.6694118551806</v>
+        <v>1523.489236226457</v>
       </c>
       <c r="N24" t="n">
-        <v>1428.524759781583</v>
+        <v>2101.344584152859</v>
       </c>
       <c r="O24" t="n">
-        <v>1934.929714729833</v>
+        <v>2556.817772012178</v>
       </c>
       <c r="P24" t="n">
-        <v>2322.031270281989</v>
+        <v>2556.817772012178</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.879212293269</v>
+        <v>2556.817772012178</v>
       </c>
       <c r="R24" t="n">
-        <v>2555.644190323788</v>
+        <v>2556.817772012178</v>
       </c>
       <c r="S24" t="n">
-        <v>2433.808769274326</v>
+        <v>2434.982350962716</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.815512932119</v>
+        <v>2243.989094620509</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.774593334977</v>
+        <v>2015.948175023367</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.622485103235</v>
+        <v>1780.796066791625</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.385128375033</v>
+        <v>1526.558710063423</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.5336281695</v>
+        <v>1318.70720985789</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.773329404546</v>
+        <v>1110.946911092936</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502085</v>
+        <v>804.8618106961646</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477701</v>
+        <v>663.7475891843612</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609051</v>
+        <v>639.3798532961196</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039805</v>
+        <v>519.28872112983</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315387</v>
+        <v>400.2207350480232</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749445</v>
+        <v>260.6829985820644</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897932</v>
+        <v>145.3385885875482</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511625</v>
+        <v>86.15399066350626</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042784</v>
+        <v>182.3220644478993</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443611</v>
+        <v>452.6506918432133</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902786</v>
+        <v>846.4789615443622</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040893</v>
+        <v>1270.622476950208</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354972</v>
+        <v>1690.763803319519</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313935</v>
+        <v>2064.897636333712</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028688</v>
+        <v>2365.448641103696</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597204</v>
+        <v>2498.488641727445</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352542</v>
+        <v>2451.908911573418</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966195</v>
+        <v>2294.024961277706</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127667</v>
+        <v>2101.546445529813</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237501</v>
+        <v>1840.284256730281</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357082</v>
+        <v>1613.421729940498</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.50452264559</v>
+        <v>1351.826521319641</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073041</v>
+        <v>1151.658931837727</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.58138725498</v>
+        <v>958.6883141103008</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112807</v>
+        <v>2147.281438257389</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497864</v>
+        <v>1806.140882733081</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216582</v>
+        <v>1475.697145542434</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943807</v>
+        <v>1117.730854360293</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796675</v>
+        <v>734.566910986789</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162839</v>
+        <v>348.0813912140389</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511625</v>
+        <v>86.15399066350626</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511625</v>
+        <v>86.15399066350626</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076836</v>
+        <v>396.1723860271862</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951448</v>
+        <v>825.3622731146475</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050963</v>
+        <v>1394.712041470465</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746738</v>
+        <v>2059.892798166241</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889755</v>
+        <v>2740.450683309257</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233287</v>
+        <v>3369.74693465279</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612704</v>
+        <v>3872.335725032206</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767229</v>
+        <v>4201.58622918673</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755812</v>
+        <v>4307.699533175313</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924548</v>
+        <v>4242.662556434684</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283566</v>
+        <v>4067.855421884337</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400163</v>
+        <v>3842.208104091569</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382061</v>
+        <v>3538.967178164102</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437415</v>
+        <v>3214.020484310091</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501803</v>
+        <v>2868.376687465115</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.13298385146</v>
+        <v>2506.059316905407</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5579923844783</v>
+        <v>942.7315740728683</v>
       </c>
       <c r="C27" t="n">
-        <v>767.1049631033513</v>
+        <v>768.2785447917413</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1705534421001</v>
+        <v>619.34413513049</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9330984366445</v>
+        <v>460.1066801250346</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3985404635295</v>
+        <v>313.5721221519195</v>
       </c>
       <c r="G27" t="n">
-        <v>176.4447347764803</v>
+        <v>177.6183164648704</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177182</v>
+        <v>91.06934511016183</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511625</v>
+        <v>86.15399066350626</v>
       </c>
       <c r="J27" t="n">
-        <v>216.5575109835859</v>
+        <v>217.7310926719759</v>
       </c>
       <c r="K27" t="n">
-        <v>519.5985603334502</v>
+        <v>520.7721420218403</v>
       </c>
       <c r="L27" t="n">
-        <v>973.3971899277776</v>
+        <v>974.5707716161677</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.315654538067</v>
+        <v>1523.489236226457</v>
       </c>
       <c r="N27" t="n">
-        <v>2100.171002464469</v>
+        <v>2050.412817063928</v>
       </c>
       <c r="O27" t="n">
-        <v>2555.644190323788</v>
+        <v>2556.817772012178</v>
       </c>
       <c r="P27" t="n">
-        <v>2555.644190323788</v>
+        <v>2556.817772012178</v>
       </c>
       <c r="Q27" t="n">
-        <v>2555.644190323788</v>
+        <v>2556.817772012178</v>
       </c>
       <c r="R27" t="n">
-        <v>2555.644190323788</v>
+        <v>2556.817772012178</v>
       </c>
       <c r="S27" t="n">
-        <v>2433.808769274326</v>
+        <v>2434.982350962716</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.815512932119</v>
+        <v>2243.989094620509</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.774593334977</v>
+        <v>2015.948175023367</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.622485103235</v>
+        <v>1780.796066791625</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.385128375033</v>
+        <v>1526.558710063423</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.5336281695</v>
+        <v>1318.70720985789</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.773329404546</v>
+        <v>1110.946911092936</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502085</v>
+        <v>804.8618106961649</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477701</v>
+        <v>663.7475891843616</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609029</v>
+        <v>541.4529111881294</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039784</v>
+        <v>421.3617790218398</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315366</v>
+        <v>400.2207350480236</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749445</v>
+        <v>260.6829985820644</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897932</v>
+        <v>145.3385885875482</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511625</v>
+        <v>86.15399066350626</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042784</v>
+        <v>182.3220644478998</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443611</v>
+        <v>452.6506918432138</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902786</v>
+        <v>846.4789615443627</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040893</v>
+        <v>1270.622476950209</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354973</v>
+        <v>1690.76380331952</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313935</v>
+        <v>2064.897636333714</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028688</v>
+        <v>2365.448641103698</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597204</v>
+        <v>2498.488641727446</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352542</v>
+        <v>2451.908911573418</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966195</v>
+        <v>2294.024961277707</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127668</v>
+        <v>2101.546445529814</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237501</v>
+        <v>1840.284256730282</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357083</v>
+        <v>1613.421729940499</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645591</v>
+        <v>1351.826521319642</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073041</v>
+        <v>1151.658931837728</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.58138725498</v>
+        <v>958.688314110301</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112807</v>
+        <v>2147.281438257388</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497864</v>
+        <v>1806.14088273308</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216582</v>
+        <v>1475.697145542433</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943806</v>
+        <v>1117.730854360293</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796671</v>
+        <v>734.5669109867888</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162839</v>
+        <v>348.0813912140389</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511622</v>
+        <v>86.15399066350626</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511622</v>
+        <v>86.15399066350626</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076839</v>
+        <v>396.1723860271862</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951445</v>
+        <v>825.3622731146475</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050963</v>
+        <v>1394.712041470465</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746738</v>
+        <v>2059.892798166241</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889754</v>
+        <v>2740.450683309257</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233286</v>
+        <v>3369.74693465279</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612703</v>
+        <v>3872.335725032206</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767228</v>
+        <v>4201.58622918673</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755811</v>
+        <v>4307.699533175313</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924547</v>
+        <v>4242.662556434684</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283565</v>
+        <v>4067.855421884337</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400162</v>
+        <v>3842.208104091569</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.71823738206</v>
+        <v>3538.967178164102</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437414</v>
+        <v>3214.020484310091</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501803</v>
+        <v>2868.376687465115</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.13298385146</v>
+        <v>2506.059316905406</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5579923844783</v>
+        <v>942.7315740728683</v>
       </c>
       <c r="C30" t="n">
-        <v>767.1049631033513</v>
+        <v>768.2785447917413</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1705534421001</v>
+        <v>619.34413513049</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9330984366445</v>
+        <v>460.1066801250346</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3985404635295</v>
+        <v>313.5721221519195</v>
       </c>
       <c r="G30" t="n">
-        <v>176.4447347764803</v>
+        <v>177.6183164648704</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177179</v>
+        <v>91.06934511016183</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511622</v>
+        <v>86.15399066350626</v>
       </c>
       <c r="J30" t="n">
-        <v>216.5575109835859</v>
+        <v>217.7310926719759</v>
       </c>
       <c r="K30" t="n">
-        <v>216.5575109835859</v>
+        <v>520.7721420218403</v>
       </c>
       <c r="L30" t="n">
-        <v>301.7509472448914</v>
+        <v>974.5707716161677</v>
       </c>
       <c r="M30" t="n">
-        <v>850.6694118551806</v>
+        <v>1523.489236226457</v>
       </c>
       <c r="N30" t="n">
-        <v>1428.524759781583</v>
+        <v>2050.412817063928</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>2556.817772012178</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281989</v>
+        <v>2556.817772012178</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293269</v>
+        <v>2556.817772012178</v>
       </c>
       <c r="R30" t="n">
-        <v>2555.644190323788</v>
+        <v>2556.817772012178</v>
       </c>
       <c r="S30" t="n">
-        <v>2433.808769274326</v>
+        <v>2434.982350962716</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.815512932119</v>
+        <v>2243.989094620509</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.774593334977</v>
+        <v>2015.948175023367</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.622485103235</v>
+        <v>1780.796066791625</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.385128375033</v>
+        <v>1526.558710063423</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.5336281695</v>
+        <v>1318.70720985789</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.773329404546</v>
+        <v>1110.946911092936</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502089</v>
+        <v>804.8618106961649</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477706</v>
+        <v>663.7475891843615</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609034</v>
+        <v>541.4529111881293</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039805</v>
+        <v>519.2887211298305</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315387</v>
+        <v>400.2207350480237</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749445</v>
+        <v>260.6829985820645</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897932</v>
+        <v>145.3385885875482</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511622</v>
+        <v>86.15399066350626</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042784</v>
+        <v>182.3220644478998</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443609</v>
+        <v>452.6506918432139</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902783</v>
+        <v>846.4789615443627</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040893</v>
+        <v>1270.622476950208</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354973</v>
+        <v>1690.763803319519</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313935</v>
+        <v>2064.897636333713</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028688</v>
+        <v>2365.448641103697</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597204</v>
+        <v>2498.488641727445</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352542</v>
+        <v>2451.908911573418</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966195</v>
+        <v>2294.024961277706</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127668</v>
+        <v>2101.546445529813</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237501</v>
+        <v>1840.284256730282</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357082</v>
+        <v>1613.421729940498</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.50452264559</v>
+        <v>1351.826521319641</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073042</v>
+        <v>1151.658931837728</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.58138725498</v>
+        <v>958.688314110301</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>725.1782574796672</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H32" t="n">
         <v>84.98040897511622</v>
@@ -6716,7 +6716,7 @@
         <v>3311.067850233287</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
         <v>4142.907144767228</v>
@@ -6731,7 +6731,7 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V32" t="n">
         <v>3496.71823738206</v>
@@ -6777,25 +6777,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>326.5159252754111</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>875.4343898857002</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>1453.289737812102</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O33" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
         <v>2555.644190323788</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502102</v>
+        <v>872.862419750209</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477707</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609036</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039792</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H34" t="n">
         <v>140.0574709897931</v>
@@ -6856,40 +6856,40 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042776</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443602</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902777</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313934</v>
       </c>
       <c r="P34" t="n">
         <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V34" t="n">
         <v>1664.992195357083</v>
@@ -6898,10 +6898,10 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>725.1782574796671</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162836</v>
       </c>
       <c r="H35" t="n">
         <v>84.98040897511619</v>
@@ -6935,16 +6935,16 @@
         <v>84.98040897511619</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K35" t="n">
         <v>766.683188695145</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N35" t="n">
         <v>2681.771598889753</v>
@@ -6974,7 +6974,7 @@
         <v>3496.718237382058</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X35" t="n">
         <v>2834.342818501802</v>
@@ -7014,22 +7014,22 @@
         <v>84.98040897511619</v>
       </c>
       <c r="J36" t="n">
-        <v>84.98040897511619</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
-        <v>84.98040897511619</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>535.3638672866908</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>1084.28233189698</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>1662.137679823382</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O36" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
         <v>2555.644190323788</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502115</v>
+        <v>872.8624197502123</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477734</v>
+        <v>735.8557341477742</v>
       </c>
       <c r="D37" t="n">
-        <v>617.668592060904</v>
+        <v>617.6685920609038</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039796</v>
+        <v>501.6849958039795</v>
       </c>
       <c r="F37" t="n">
         <v>386.724545631538</v>
       </c>
       <c r="G37" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749439</v>
       </c>
       <c r="H37" t="n">
         <v>140.0574709897929</v>
@@ -7093,13 +7093,13 @@
         <v>84.98040897511619</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042786</v>
       </c>
       <c r="K37" t="n">
         <v>459.5287020443614</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902789</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040894</v>
@@ -7120,7 +7120,7 @@
         <v>2487.049233352544</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966198</v>
       </c>
       <c r="T37" t="n">
         <v>2144.90183912767</v>
@@ -7135,10 +7135,10 @@
         <v>1407.504522645593</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073045</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254983</v>
       </c>
     </row>
     <row r="38">
@@ -7172,13 +7172,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951443</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M38" t="n">
         <v>2001.213713746738</v>
@@ -7187,7 +7187,7 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P38" t="n">
         <v>3813.656640612703</v>
@@ -7254,22 +7254,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="K39" t="n">
-        <v>84.98040897511622</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L39" t="n">
-        <v>535.3638672866908</v>
+        <v>841.820087919308</v>
       </c>
       <c r="M39" t="n">
-        <v>1084.28233189698</v>
+        <v>1390.738552529597</v>
       </c>
       <c r="N39" t="n">
-        <v>1662.137679823382</v>
+        <v>1968.593900456</v>
       </c>
       <c r="O39" t="n">
-        <v>2168.542634771632</v>
+        <v>2474.99885540425</v>
       </c>
       <c r="P39" t="n">
-        <v>2555.644190323788</v>
+        <v>2474.99885540425</v>
       </c>
       <c r="Q39" t="n">
         <v>2555.644190323788</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477721</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609043</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749438</v>
+        <v>251.2943450749447</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897926</v>
+        <v>140.0574709897934</v>
       </c>
       <c r="I40" t="n">
         <v>84.98040897511622</v>
@@ -7333,10 +7333,10 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M40" t="n">
         <v>1285.552079040893</v>
@@ -7354,25 +7354,25 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S40" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y40" t="n">
         <v>1022.581387254981</v>
@@ -7418,10 +7418,10 @@
         <v>1336.032957050962</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O41" t="n">
         <v>3311.067850233286</v>
@@ -7488,22 +7488,22 @@
         <v>84.98040897511619</v>
       </c>
       <c r="J42" t="n">
-        <v>84.98040897511619</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>84.98040897511619</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>535.3638672866908</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M42" t="n">
-        <v>1084.28233189698</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1662.137679823382</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
         <v>2555.644190323788</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502101</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E43" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G43" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897928</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J43" t="n">
-        <v>185.174278704279</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443618</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L43" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040894</v>
@@ -7591,16 +7591,16 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
         <v>1664.992195357083</v>
@@ -7609,7 +7609,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y43" t="n">
         <v>1022.581387254981</v>
@@ -7634,10 +7634,10 @@
         <v>1104.234664943807</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796676</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H44" t="n">
         <v>84.98040897511622</v>
@@ -7646,25 +7646,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q44" t="n">
         <v>4142.907144767228</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502101</v>
       </c>
       <c r="C46" t="n">
         <v>735.8557341477717</v>
@@ -7819,34 +7819,34 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q46" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y46" t="n">
         <v>1022.581387254981</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.06191329280013</v>
+        <v>92.06191329280011</v>
       </c>
       <c r="K2" t="n">
         <v>86.72591490550931</v>
@@ -7985,7 +7985,7 @@
         <v>70.31665934305323</v>
       </c>
       <c r="M2" t="n">
-        <v>46.25150133729366</v>
+        <v>46.25150133729363</v>
       </c>
       <c r="N2" t="n">
         <v>42.33948647951536</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>73.83937108913169</v>
+        <v>73.83937108913167</v>
       </c>
       <c r="K3" t="n">
         <v>47.25897875440141</v>
@@ -8149,10 +8149,10 @@
         <v>55.71856618250388</v>
       </c>
       <c r="O4" t="n">
-        <v>71.9833858147683</v>
+        <v>71.98338581476828</v>
       </c>
       <c r="P4" t="n">
-        <v>80.84873837615827</v>
+        <v>80.84873837615825</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>121.303196496277</v>
+        <v>110.7550641522157</v>
       </c>
       <c r="K5" t="n">
-        <v>62.25132995021501</v>
+        <v>39.821113867273</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>32.92284478702616</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>26.5340116762749</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>77.43214871795018</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.79851374509755</v>
+        <v>69.26778342987404</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>48.71025537660839</v>
+        <v>55.19960455855953</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>15.40064885532176</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>23.24751887834378</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.98093280782416</v>
+        <v>43.19179240298216</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>106.7437663446525</v>
+        <v>55.15745761223249</v>
       </c>
       <c r="L7" t="n">
-        <v>104.6957145611049</v>
+        <v>88.34420067449287</v>
       </c>
       <c r="M7" t="n">
-        <v>24.64783237711767</v>
+        <v>89.2675341049266</v>
       </c>
       <c r="N7" t="n">
-        <v>28.73259529078864</v>
+        <v>80.39669041511367</v>
       </c>
       <c r="O7" t="n">
-        <v>113.6093402859525</v>
+        <v>48.6044267867024</v>
       </c>
       <c r="P7" t="n">
-        <v>127.7529118580978</v>
+        <v>110.8332908574203</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8620,7 +8620,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>154.1946371899308</v>
+        <v>154.1946371899309</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>58.08636639506324</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1.747935129969846e-12</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>58.08636639506324</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.762145984685048e-12</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>58.08636639506324</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.25430980652213</v>
+        <v>14.25430980652214</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>124.4562894637305</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>312.4389741767264</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>43.04800208415109</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23473,7 +23473,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>104.292481438616</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>350.6124841558305</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.5778876545563</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>28.32111532044246</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.63969577984997</v>
+        <v>91.93034877516573</v>
       </c>
       <c r="T14" t="n">
-        <v>202.4128192994478</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9676649189902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>149.7811337716222</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>81.99723615843783</v>
+        <v>5.995134365223123</v>
       </c>
       <c r="S16" t="n">
-        <v>187.0811492795302</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>218.8899499311517</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>80.99510916549372</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>188.2224266407313</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>167.4516018158823</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>76.4197670477747</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>153.3057225371871</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>61.27729628837474</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>-2.813749233609997e-12</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>56.93044770380258</v>
       </c>
       <c r="T20" t="n">
-        <v>2.701199264265597e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>96.94767268691025</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>2.250999386887997e-12</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>2.138449417543597e-12</v>
+        <v>96.94767268691059</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24610,10 +24610,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>96.94767268691069</v>
       </c>
       <c r="G28" t="n">
-        <v>2.160049916710705e-12</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.673328142715036e-12</v>
+        <v>96.94767268691081</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1.125499693443999e-12</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-2.472688720445149e-12</v>
+        <v>-3.376499080331996e-12</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>-2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>2.593480985524366e-13</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1194318.599969305</v>
+        <v>1194318.599969304</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1185295.117541858</v>
+        <v>1189414.732293628</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1035211.702338707</v>
+        <v>1101148.24979079</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1178523.737566777</v>
+        <v>1132307.252421305</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1178523.737566776</v>
+        <v>1168750.506477842</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1178523.737566777</v>
+        <v>1176826.413328651</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1178523.737566777</v>
+        <v>1176826.413328651</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1178523.737566777</v>
+        <v>1176826.413328651</v>
       </c>
     </row>
     <row r="12">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266291.9329078594</v>
+        <v>266291.9329078593</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="E2" t="n">
         <v>221648.1143310984</v>
       </c>
       <c r="F2" t="n">
-        <v>234153.3741889641</v>
+        <v>249191.5341341759</v>
       </c>
       <c r="G2" t="n">
-        <v>266838.5752058923</v>
+        <v>256297.9733306091</v>
       </c>
       <c r="H2" t="n">
-        <v>266838.575205892</v>
+        <v>264609.5926768369</v>
       </c>
       <c r="I2" t="n">
-        <v>266838.5752058922</v>
+        <v>266082.3833589342</v>
       </c>
       <c r="J2" t="n">
-        <v>266838.5752058921</v>
+        <v>266082.3833589342</v>
       </c>
       <c r="K2" t="n">
-        <v>266838.5752058922</v>
+        <v>266082.3833589342</v>
       </c>
       <c r="L2" t="n">
         <v>266838.5752058921</v>
       </c>
       <c r="M2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="N2" t="n">
         <v>266838.575205892</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.575205892</v>
       </c>
       <c r="P2" t="n">
         <v>266838.5752058921</v>
@@ -26366,46 +26366,46 @@
         <v>251306.7941829319</v>
       </c>
       <c r="C3" t="n">
-        <v>155917.2887368104</v>
+        <v>99673.64905524079</v>
       </c>
       <c r="D3" t="n">
-        <v>157449.2131172153</v>
+        <v>210537.2907861466</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336677</v>
+        <v>627134.6436336681</v>
       </c>
       <c r="F3" t="n">
-        <v>97637.93072761715</v>
+        <v>215052.1096963077</v>
       </c>
       <c r="G3" t="n">
-        <v>139801.4831923296</v>
+        <v>9904.302692844114</v>
       </c>
       <c r="H3" t="n">
-        <v>2.062438397842925e-11</v>
+        <v>12130.69074870992</v>
       </c>
       <c r="I3" t="n">
-        <v>1.813903054426191e-10</v>
+        <v>3901.000201979721</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>20125.44254283456</v>
+        <v>12865.64378682864</v>
       </c>
       <c r="L3" t="n">
-        <v>52958.20690510048</v>
+        <v>44253.88288566165</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678772</v>
+        <v>172587.1326165875</v>
       </c>
       <c r="N3" t="n">
-        <v>25671.32474581233</v>
+        <v>56542.29359578614</v>
       </c>
       <c r="O3" t="n">
-        <v>30332.01535443228</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>360207.2495555317</v>
       </c>
       <c r="C4" t="n">
-        <v>318965.8990796285</v>
+        <v>334189.0889417143</v>
       </c>
       <c r="D4" t="n">
-        <v>272582.5508032602</v>
+        <v>272582.5508032603</v>
       </c>
       <c r="E4" t="n">
         <v>9160.459137079168</v>
       </c>
       <c r="F4" t="n">
-        <v>9214.698066739984</v>
+        <v>9279.934068777682</v>
       </c>
       <c r="G4" t="n">
-        <v>40349.81915099786</v>
+        <v>21790.87248507191</v>
       </c>
       <c r="H4" t="n">
-        <v>40349.81915099766</v>
+        <v>36425.22657407665</v>
       </c>
       <c r="I4" t="n">
-        <v>40349.81915099771</v>
+        <v>38050.44825399068</v>
       </c>
       <c r="J4" t="n">
-        <v>40349.81915099771</v>
+        <v>38050.44825399068</v>
       </c>
       <c r="K4" t="n">
-        <v>40349.81915099766</v>
+        <v>38050.44825399068</v>
       </c>
       <c r="L4" t="n">
-        <v>40349.81915099773</v>
+        <v>40349.8191509977</v>
       </c>
       <c r="M4" t="n">
-        <v>40349.81915099784</v>
+        <v>40349.81915099789</v>
       </c>
       <c r="N4" t="n">
-        <v>40349.81915099773</v>
+        <v>40349.81915099776</v>
       </c>
       <c r="O4" t="n">
-        <v>40349.81915099782</v>
+        <v>40349.81915099779</v>
       </c>
       <c r="P4" t="n">
-        <v>40349.81915099773</v>
+        <v>40349.8191509977</v>
       </c>
     </row>
     <row r="5">
@@ -26470,31 +26470,31 @@
         <v>39312.96135688073</v>
       </c>
       <c r="C5" t="n">
-        <v>47195.23346653589</v>
+        <v>44351.88186647138</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161355</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>82543.46661186789</v>
+        <v>92448.99600060697</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215527</v>
+        <v>93489.80202946288</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215525</v>
+        <v>94764.57083015449</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.43410215528</v>
+        <v>95656.49291333093</v>
       </c>
       <c r="J5" t="n">
-        <v>95106.43410215528</v>
+        <v>95656.49291333093</v>
       </c>
       <c r="K5" t="n">
-        <v>95106.43410215527</v>
+        <v>95656.49291333093</v>
       </c>
       <c r="L5" t="n">
         <v>95106.43410215527</v>
@@ -26509,7 +26509,7 @@
         <v>95106.43410215525</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-384535.0721874848</v>
+        <v>-384539.277128239</v>
       </c>
       <c r="C6" t="n">
-        <v>-255239.8460770827</v>
+        <v>-211376.0446575342</v>
       </c>
       <c r="D6" t="n">
-        <v>-220178.9891261968</v>
+        <v>-273267.0667951283</v>
       </c>
       <c r="E6" t="n">
-        <v>-488953.3290010418</v>
+        <v>-489300.9479308483</v>
       </c>
       <c r="F6" t="n">
-        <v>44757.27878273904</v>
+        <v>-67725.25210129883</v>
       </c>
       <c r="G6" t="n">
-        <v>-8419.161239590467</v>
+        <v>131031.9145703433</v>
       </c>
       <c r="H6" t="n">
-        <v>131382.3219527391</v>
+        <v>121271.9585044415</v>
       </c>
       <c r="I6" t="n">
-        <v>131382.321952739</v>
+        <v>128468.6251292717</v>
       </c>
       <c r="J6" t="n">
-        <v>131382.3219527391</v>
+        <v>132369.6253312514</v>
       </c>
       <c r="K6" t="n">
-        <v>111256.8794099047</v>
+        <v>119503.9815444227</v>
       </c>
       <c r="L6" t="n">
-        <v>78424.1150476386</v>
+        <v>87128.43906707753</v>
       </c>
       <c r="M6" t="n">
-        <v>-29074.11991513813</v>
+        <v>-41204.81066384861</v>
       </c>
       <c r="N6" t="n">
-        <v>105710.9972069266</v>
+        <v>74840.02835695284</v>
       </c>
       <c r="O6" t="n">
-        <v>101050.3065983067</v>
+        <v>131382.3219527389</v>
       </c>
       <c r="P6" t="n">
-        <v>131382.321952739</v>
+        <v>131382.3219527392</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M2" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="3">
@@ -26738,16 +26738,16 @@
         <v>260.7963925174648</v>
       </c>
       <c r="C3" t="n">
-        <v>404.2773905816698</v>
+        <v>352.5198618197557</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1175.306402818971</v>
+        <v>1278.159870620123</v>
       </c>
       <c r="G3" t="n">
         <v>1278.159870620123</v>
@@ -26790,31 +26790,31 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>78.19714394499168</v>
+        <v>49.98929076974853</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>936.2136024739194</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="G4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="H4" t="n">
         <v>1062.255112188952</v>
       </c>
       <c r="I4" t="n">
-        <v>1062.255112188953</v>
+        <v>1076.924883293828</v>
       </c>
       <c r="J4" t="n">
-        <v>1062.255112188953</v>
+        <v>1076.924883293828</v>
       </c>
       <c r="K4" t="n">
-        <v>1062.255112188953</v>
+        <v>1076.924883293828</v>
       </c>
       <c r="L4" t="n">
         <v>1062.255112188953</v>
@@ -26920,10 +26920,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>15.16336343588755</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221413</v>
+        <v>16.44683891632636</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>15.16336343588775</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,22 +26960,22 @@
         <v>260.7963925174648</v>
       </c>
       <c r="C3" t="n">
-        <v>143.480998064205</v>
+        <v>91.72346930229088</v>
       </c>
       <c r="D3" t="n">
-        <v>144.1925503312348</v>
+        <v>195.9500790931485</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803937</v>
+        <v>541.3067596803941</v>
       </c>
       <c r="F3" t="n">
-        <v>85.52970222567319</v>
+        <v>188.3831700268245</v>
       </c>
       <c r="G3" t="n">
-        <v>102.8534678011511</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27012,46 +27012,46 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>78.19714394499168</v>
+        <v>49.98929076974853</v>
       </c>
       <c r="D4" t="n">
-        <v>109.3284432213282</v>
+        <v>137.5362963965712</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359729</v>
+        <v>643.8758682359731</v>
       </c>
       <c r="F4" t="n">
-        <v>104.8121470716267</v>
+        <v>230.8536567866595</v>
       </c>
       <c r="G4" t="n">
-        <v>126.0415097150329</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>14.66977110487596</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>78.19714394499145</v>
+        <v>49.98929076974853</v>
       </c>
       <c r="L4" t="n">
-        <v>109.3284432213282</v>
+        <v>122.8665252916957</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359725</v>
+        <v>643.8758682359727</v>
       </c>
       <c r="N4" t="n">
-        <v>104.8121470716271</v>
+        <v>230.8536567866599</v>
       </c>
       <c r="O4" t="n">
-        <v>126.0415097150325</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27157,10 +27157,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>15.16336343588755</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>78.19714394499168</v>
+        <v>49.98929076974853</v>
       </c>
       <c r="L4" t="n">
-        <v>109.3284432213282</v>
+        <v>137.5362963965712</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359729</v>
+        <v>643.8758682359731</v>
       </c>
       <c r="N4" t="n">
-        <v>104.8121470716267</v>
+        <v>230.8536567866595</v>
       </c>
       <c r="O4" t="n">
-        <v>126.0415097150329</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>84.0108208899931</v>
+        <v>84.01082088999308</v>
       </c>
       <c r="S2" t="n">
         <v>185.1290231762283</v>
@@ -27558,7 +27558,7 @@
         <v>141.3076148215571</v>
       </c>
       <c r="J4" t="n">
-        <v>60.10977774604452</v>
+        <v>60.10977774604451</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.7817879815572</v>
+        <v>46.78178798155719</v>
       </c>
       <c r="R4" t="n">
         <v>156.1475068297698</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>315.283601001259</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>328.6789017967197</v>
+        <v>356.8867549719629</v>
       </c>
       <c r="G5" t="n">
-        <v>335.4803578291115</v>
+        <v>363.8962814717393</v>
       </c>
       <c r="H5" t="n">
-        <v>322.8303565829248</v>
+        <v>324.9612582570272</v>
       </c>
       <c r="I5" t="n">
-        <v>147.8189886642759</v>
+        <v>155.84062535812</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>60.84810982040503</v>
       </c>
       <c r="S5" t="n">
-        <v>171.9850101374823</v>
+        <v>176.7264159130084</v>
       </c>
       <c r="T5" t="n">
-        <v>194.8832390445743</v>
+        <v>216.8922085787405</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2156340485539</v>
+        <v>251.2322796859447</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>283.7216911601404</v>
       </c>
       <c r="W5" t="n">
-        <v>271.0438247724213</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27704,16 +27704,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>95.07992162363536</v>
       </c>
       <c r="G6" t="n">
-        <v>58.27679543470366</v>
+        <v>136.5852668943908</v>
       </c>
       <c r="H6" t="n">
-        <v>103.8371535378093</v>
+        <v>104.9123429560521</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>63.29020912231053</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>53.07980430433687</v>
       </c>
       <c r="S6" t="n">
-        <v>155.531145168806</v>
+        <v>157.5990049264165</v>
       </c>
       <c r="T6" t="n">
-        <v>196.6597199972315</v>
+        <v>197.1084480060258</v>
       </c>
       <c r="U6" t="n">
-        <v>184.4359398287743</v>
+        <v>225.8914971948682</v>
       </c>
       <c r="V6" t="n">
-        <v>154.6034432044336</v>
+        <v>188.7700198394308</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>201.7056923911711</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>155.783694433729</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>167.1594534608236</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>146.672712471939</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>68.23681870157749</v>
+        <v>96.44467187682065</v>
       </c>
       <c r="F7" t="n">
-        <v>67.22390407793957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>89.06481061077882</v>
+        <v>167.3552878043576</v>
       </c>
       <c r="H7" t="n">
-        <v>155.7454792617203</v>
+        <v>106.5860059203186</v>
       </c>
       <c r="I7" t="n">
-        <v>133.5267108609605</v>
+        <v>136.3334961911968</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>144.513785249023</v>
+        <v>148.7103874991283</v>
       </c>
       <c r="S7" t="n">
-        <v>211.3116839755778</v>
+        <v>212.9382279532268</v>
       </c>
       <c r="T7" t="n">
-        <v>224.8306652713408</v>
+        <v>225.2294527880309</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2792643672533</v>
+        <v>286.2843552717217</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>219.3504585753916</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>384.7619123176197</v>
+        <v>237.4168669630901</v>
       </c>
       <c r="H8" t="n">
-        <v>129.3682389399024</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>213.4438810562068</v>
@@ -27910,7 +27910,7 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038152</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897339</v>
       </c>
     </row>
     <row r="9">
@@ -27929,19 +27929,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>61.65174237655246</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>136.1637893657753</v>
@@ -27950,7 +27950,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>48.77881175550657</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714238</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S9" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920013</v>
+        <v>15.41997243790289</v>
       </c>
       <c r="U9" t="n">
         <v>225.8637684100909</v>
@@ -27995,10 +27995,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098464</v>
       </c>
     </row>
     <row r="10">
@@ -28029,7 +28029,7 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>206.7802557954962</v>
+        <v>76.76037020702188</v>
       </c>
       <c r="T10" t="n">
-        <v>36.19408632378023</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
         <v>286.2650814934503</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>38.18406822271729</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>205.0863527147026</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221407</v>
+        <v>12.38037836605499</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605497</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605497</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221388</v>
+        <v>27.54374180194254</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221406</v>
+        <v>31.61020235221411</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I41" t="n">
         <v>12.3803783660569</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
   </sheetData>
@@ -31048,7 +31048,7 @@
         <v>40.41950923629976</v>
       </c>
       <c r="J2" t="n">
-        <v>88.98399123388616</v>
+        <v>88.98399123388617</v>
       </c>
       <c r="K2" t="n">
         <v>133.3639361394712</v>
@@ -31072,7 +31072,7 @@
         <v>113.2183977184739</v>
       </c>
       <c r="R2" t="n">
-        <v>65.85829705115658</v>
+        <v>65.8582970511566</v>
       </c>
       <c r="S2" t="n">
         <v>23.89104641001701</v>
@@ -31081,7 +31081,7 @@
         <v>4.589492294453073</v>
       </c>
       <c r="U2" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.08387421668903385</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,7 +31121,7 @@
         <v>0.560958278245113</v>
       </c>
       <c r="H3" t="n">
-        <v>5.417676003051487</v>
+        <v>5.417676003051488</v>
       </c>
       <c r="I3" t="n">
         <v>19.31369510624622</v>
@@ -31154,7 +31154,7 @@
         <v>34.82862011770975</v>
       </c>
       <c r="S3" t="n">
-        <v>10.4195539840704</v>
+        <v>10.41955398407041</v>
       </c>
       <c r="T3" t="n">
         <v>2.261055516259907</v>
@@ -31206,7 +31206,7 @@
         <v>14.14286010570121</v>
       </c>
       <c r="J4" t="n">
-        <v>33.24940237062825</v>
+        <v>33.24940237062826</v>
       </c>
       <c r="K4" t="n">
         <v>54.63898190775737</v>
@@ -31221,13 +31221,13 @@
         <v>71.96697828272931</v>
       </c>
       <c r="O4" t="n">
-        <v>66.47315263707449</v>
+        <v>66.47315263707451</v>
       </c>
       <c r="P4" t="n">
-        <v>56.87926567298935</v>
+        <v>56.87926567298936</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.38025527013718</v>
+        <v>39.38025527013719</v>
       </c>
       <c r="R4" t="n">
         <v>21.14588454739968</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.625235741031837</v>
+        <v>1.417165273647258</v>
       </c>
       <c r="H5" t="n">
-        <v>16.64444553284231</v>
+        <v>14.51354385873998</v>
       </c>
       <c r="I5" t="n">
-        <v>62.65690090612996</v>
+        <v>54.63526421228597</v>
       </c>
       <c r="J5" t="n">
-        <v>137.939851975401</v>
+        <v>120.2801311442191</v>
       </c>
       <c r="K5" t="n">
-        <v>206.7360808932787</v>
+        <v>180.2687371777075</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4743892028819</v>
+        <v>223.6393089210899</v>
       </c>
       <c r="M5" t="n">
-        <v>285.3771753124568</v>
+        <v>248.8418218563143</v>
       </c>
       <c r="N5" t="n">
-        <v>289.9948763616635</v>
+        <v>252.8683426900646</v>
       </c>
       <c r="O5" t="n">
-        <v>273.8339384617782</v>
+        <v>238.7764055002346</v>
       </c>
       <c r="P5" t="n">
-        <v>233.7109311050546</v>
+        <v>203.7901378070679</v>
       </c>
       <c r="Q5" t="n">
-        <v>175.5071761293519</v>
+        <v>153.0379064445754</v>
       </c>
       <c r="R5" t="n">
-        <v>102.0912146175912</v>
+        <v>89.02100812074465</v>
       </c>
       <c r="S5" t="n">
-        <v>37.03505944876303</v>
+        <v>32.29365367323692</v>
       </c>
       <c r="T5" t="n">
-        <v>7.114469456366871</v>
+        <v>6.203640985390876</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1300188592825469</v>
+        <v>0.1133732218917806</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8695777835152898</v>
+        <v>0.7582502688198519</v>
       </c>
       <c r="H6" t="n">
-        <v>8.398290698687143</v>
+        <v>7.32310128044436</v>
       </c>
       <c r="I6" t="n">
-        <v>29.93941052892555</v>
+        <v>26.10642372910455</v>
       </c>
       <c r="J6" t="n">
-        <v>82.15603085395992</v>
+        <v>71.63802210810717</v>
       </c>
       <c r="K6" t="n">
-        <v>140.4177423494843</v>
+        <v>122.4407901190372</v>
       </c>
       <c r="L6" t="n">
-        <v>188.8089832145808</v>
+        <v>164.6367524470473</v>
       </c>
       <c r="M6" t="n">
-        <v>220.33117786701</v>
+        <v>192.1233246917668</v>
       </c>
       <c r="N6" t="n">
-        <v>209.538856028325</v>
+        <v>181.3310028530818</v>
       </c>
       <c r="O6" t="n">
-        <v>206.89467553664</v>
+        <v>180.4070277748706</v>
       </c>
       <c r="P6" t="n">
-        <v>166.0512172749504</v>
+        <v>144.792544753854</v>
       </c>
       <c r="Q6" t="n">
-        <v>111.0008412781974</v>
+        <v>96.78998168303936</v>
       </c>
       <c r="R6" t="n">
-        <v>53.99010133088792</v>
+        <v>47.07802984830627</v>
       </c>
       <c r="S6" t="n">
-        <v>16.1520259350318</v>
+        <v>14.08416617742136</v>
       </c>
       <c r="T6" t="n">
-        <v>3.505008697590136</v>
+        <v>3.056280688795805</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0572090647049533</v>
+        <v>0.04988488610656922</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.729024802688257</v>
+        <v>0.6356915541011987</v>
       </c>
       <c r="H7" t="n">
-        <v>6.481693245719235</v>
+        <v>5.65187581737248</v>
       </c>
       <c r="I7" t="n">
-        <v>21.92376406629777</v>
+        <v>19.11697873606151</v>
       </c>
       <c r="J7" t="n">
-        <v>51.54205355005976</v>
+        <v>44.94339287495475</v>
       </c>
       <c r="K7" t="n">
-        <v>84.69942707596293</v>
+        <v>73.85580055830289</v>
       </c>
       <c r="L7" t="n">
-        <v>108.3861056651251</v>
+        <v>94.50999705246369</v>
       </c>
       <c r="M7" t="n">
-        <v>114.2779515704874</v>
+        <v>99.64754061242698</v>
       </c>
       <c r="N7" t="n">
-        <v>111.5606773059222</v>
+        <v>97.27814481986805</v>
       </c>
       <c r="O7" t="n">
-        <v>103.044342110882</v>
+        <v>89.85211166514038</v>
       </c>
       <c r="P7" t="n">
-        <v>88.17223613604152</v>
+        <v>76.88400396147586</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.04588597783214</v>
+        <v>53.23049913478311</v>
       </c>
       <c r="R7" t="n">
-        <v>32.77960612814653</v>
+        <v>28.58300387804116</v>
       </c>
       <c r="S7" t="n">
-        <v>12.70491406139444</v>
+        <v>11.07837008374543</v>
       </c>
       <c r="T7" t="n">
-        <v>3.114924156940734</v>
+        <v>2.716136640250576</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03976498923754133</v>
+        <v>0.03467408476915634</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31595,46 +31595,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S9" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R10" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.724849860578776</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H14" t="n">
-        <v>48.3883686346524</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I14" t="n">
-        <v>182.1547742499635</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J14" t="n">
-        <v>401.0157258542983</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K14" t="n">
-        <v>601.018620452598</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L14" t="n">
-        <v>745.6167443732859</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M14" t="n">
-        <v>829.6422930813536</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N14" t="n">
-        <v>843.0667727477231</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O14" t="n">
-        <v>796.0840469465929</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P14" t="n">
-        <v>679.4393160135543</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q14" t="n">
-        <v>510.2306303815767</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R14" t="n">
-        <v>296.7973500545818</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S14" t="n">
-        <v>107.667516197939</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T14" t="n">
-        <v>20.68303026468361</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U14" t="n">
-        <v>0.377987988846302</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.52801754568609</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H15" t="n">
-        <v>24.41532734912619</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I15" t="n">
-        <v>87.03920058612196</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J15" t="n">
-        <v>238.8422190860705</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>248.910544319637</v>
       </c>
       <c r="L15" t="n">
-        <v>548.9013535052188</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>640.5419895363394</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N15" t="n">
-        <v>657.4952300071906</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O15" t="n">
-        <v>601.4796833369882</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P15" t="n">
-        <v>482.7404732635131</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q15" t="n">
-        <v>296.3339845938611</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>46.95681713149379</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T15" t="n">
-        <v>10.18968475651542</v>
+        <v>11.08140491603672</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1663169437951375</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.119404988689948</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H16" t="n">
-        <v>18.84343708126156</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I16" t="n">
-        <v>63.73628820533047</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J16" t="n">
-        <v>149.8419327003793</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K16" t="n">
-        <v>246.236325049614</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L16" t="n">
-        <v>315.0977198639584</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M16" t="n">
-        <v>332.2263656361889</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N16" t="n">
-        <v>324.3267652237993</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O16" t="n">
-        <v>299.5682614922848</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P16" t="n">
-        <v>256.3323997230096</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q16" t="n">
-        <v>177.4712668256647</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R16" t="n">
-        <v>95.29615521873166</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S16" t="n">
-        <v>36.93544875744209</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T16" t="n">
-        <v>9.055639497129777</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1156039084739973</v>
+        <v>0.1257206430118155</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I17" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N17" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R17" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
@@ -32306,31 +32306,31 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H18" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M18" t="n">
-        <v>696.5971294879668</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0339827160627</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578282</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P18" t="n">
-        <v>521.5364117268593</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H19" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I19" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
         <v>162.9549067838146</v>
@@ -32397,31 +32397,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P19" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R19" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32561,7 +32561,7 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N21" t="n">
-        <v>638.5726240095473</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O21" t="n">
         <v>654.1164009578283</v>
@@ -32573,7 +32573,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486996</v>
@@ -32786,13 +32786,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L24" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
         <v>696.5971294879669</v>
@@ -32801,16 +32801,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P24" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486996</v>
@@ -33035,10 +33035,10 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N27" t="n">
-        <v>715.0339827160628</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O27" t="n">
-        <v>602.6701715750701</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33263,28 +33263,28 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L30" t="n">
-        <v>224.608355801395</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M30" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N30" t="n">
-        <v>715.0339827160628</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O30" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P30" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486996</v>
@@ -33497,28 +33497,28 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L33" t="n">
-        <v>382.529648770071</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N33" t="n">
-        <v>715.0339827160628</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O33" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P33" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,25 +33734,25 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L36" t="n">
-        <v>593.4871659531819</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M36" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N36" t="n">
-        <v>715.0339827160628</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O36" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P36" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33974,10 +33974,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L39" t="n">
-        <v>593.4871659531818</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M39" t="n">
         <v>696.5971294879669</v>
@@ -33989,10 +33989,10 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P39" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>221.4417083481816</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34208,13 +34208,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L42" t="n">
-        <v>593.4871659531819</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M42" t="n">
         <v>696.5971294879669</v>
@@ -34223,10 +34223,10 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P42" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>78.19714394499168</v>
+        <v>49.98929076974853</v>
       </c>
       <c r="K5" t="n">
-        <v>48.89755979851317</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>20.70797423289463</v>
+        <v>20.79573873812881</v>
       </c>
       <c r="M5" t="n">
-        <v>55.03094208518408</v>
+        <v>18.49558862904155</v>
       </c>
       <c r="N5" t="n">
-        <v>60.58181276507258</v>
+        <v>49.98929076974853</v>
       </c>
       <c r="O5" t="n">
-        <v>43.73572704009146</v>
+        <v>8.678194078547904</v>
       </c>
       <c r="P5" t="n">
-        <v>2.477935349785099</v>
+        <v>49.98929076974853</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4.028659563901612</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>2.57630337512532</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>50.25460343470664</v>
+        <v>49.32989154551685</v>
       </c>
       <c r="M6" t="n">
-        <v>78.19714394499169</v>
+        <v>49.98929076974852</v>
       </c>
       <c r="N6" t="n">
-        <v>78.19714394499168</v>
+        <v>49.98929076974853</v>
       </c>
       <c r="O6" t="n">
-        <v>64.29843109219559</v>
+        <v>37.8107833304262</v>
       </c>
       <c r="P6" t="n">
-        <v>32.07680986062016</v>
+        <v>10.81813733952376</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>62.42993525008008</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>78.19714394499168</v>
+        <v>47.96952144571827</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>49.98929076974853</v>
       </c>
       <c r="N7" t="n">
-        <v>12.6077281314776</v>
+        <v>49.98929076974853</v>
       </c>
       <c r="O7" t="n">
-        <v>78.19714394499168</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>78.19714394499168</v>
+        <v>49.98929076974853</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L8" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405812</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P8" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L9" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855694</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,19 +35331,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>92.63945645062401</v>
+        <v>92.63945645062394</v>
       </c>
       <c r="L10" t="n">
-        <v>174.6339172880152</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N10" t="n">
         <v>177.8598224851391</v>
       </c>
       <c r="O10" t="n">
-        <v>164.382023673283</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P10" t="n">
         <v>116.8989542469472</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>219.969821327612</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K14" t="n">
-        <v>380.9287694076175</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L14" t="n">
-        <v>509.8503294032986</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M14" t="n">
-        <v>599.2960598540809</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N14" t="n">
-        <v>613.6537091511323</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O14" t="n">
-        <v>565.9858355249062</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P14" t="n">
-        <v>448.2063202582847</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q14" t="n">
-        <v>287.9249405071272</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R14" t="n">
-        <v>81.21181224044972</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>112.0045924194038</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>111.069105345278</v>
       </c>
       <c r="L15" t="n">
-        <v>410.3469737253446</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>498.4079556143211</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N15" t="n">
-        <v>526.1535179238573</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O15" t="n">
-        <v>458.8834388925437</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P15" t="n">
-        <v>348.7660658491828</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q15" t="n">
-        <v>156.3522105078396</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.48275258370657</v>
+        <v>69.59572666714186</v>
       </c>
       <c r="K16" t="n">
-        <v>223.9668332237311</v>
+        <v>245.5154777892838</v>
       </c>
       <c r="L16" t="n">
-        <v>342.6877451242746</v>
+        <v>370.2625912295209</v>
       </c>
       <c r="M16" t="n">
-        <v>371.8102425980294</v>
+        <v>400.8840515372959</v>
       </c>
       <c r="N16" t="n">
-        <v>368.4589376030279</v>
+        <v>396.8414363488768</v>
       </c>
       <c r="O16" t="n">
-        <v>324.1533894063245</v>
+        <v>350.3692208386573</v>
       </c>
       <c r="P16" t="n">
-        <v>253.6109589879031</v>
+        <v>276.0431317030919</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.3092235739703</v>
+        <v>106.8400972119442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K17" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N17" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R17" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327294</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133838</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P18" t="n">
-        <v>387.5620043125291</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2059290193559</v>
+        <v>81.97610503319684</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414978</v>
+        <v>257.8958561553388</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817349</v>
+        <v>382.6429695955759</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895099</v>
+        <v>413.2644299033508</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010908</v>
+        <v>409.2218147149317</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908713</v>
+        <v>362.7495992047122</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553059</v>
+        <v>288.4235100691469</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.4502995641582</v>
+        <v>119.2204755779991</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36209,7 +36209,7 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>507.230911926214</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O21" t="n">
         <v>511.5201565133839</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.2059290193557</v>
+        <v>97.13946846908439</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414976</v>
+        <v>273.0592195912263</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817348</v>
+        <v>397.8063330314635</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895098</v>
+        <v>428.4277933392384</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010906</v>
+        <v>424.3851781508193</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908712</v>
+        <v>377.9129626405998</v>
       </c>
       <c r="P22" t="n">
-        <v>307.6533340553058</v>
+        <v>303.5868735050345</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.450299564158</v>
+        <v>134.3838390138867</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.0635279116842</v>
+        <v>313.1498943067475</v>
       </c>
       <c r="K23" t="n">
         <v>433.5251384721831</v>
@@ -36379,7 +36379,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440256</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
         <v>554.4630955659486</v>
@@ -36449,16 +36449,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2059290193557</v>
+        <v>97.13946846908439</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414976</v>
+        <v>273.0592195912263</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817348</v>
+        <v>397.8063330314635</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895098</v>
+        <v>428.4277933392384</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010906</v>
+        <v>424.3851781508193</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908712</v>
+        <v>377.9129626405998</v>
       </c>
       <c r="P25" t="n">
-        <v>307.6533340553058</v>
+        <v>303.5868735050345</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.450299564158</v>
+        <v>134.3838390138867</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>255.0635279116842</v>
+        <v>313.1498943067475</v>
       </c>
       <c r="K26" t="n">
         <v>433.5251384721831</v>
@@ -36610,7 +36610,7 @@
         <v>635.6527791348809</v>
       </c>
       <c r="P26" t="n">
-        <v>507.6654448276947</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q26" t="n">
         <v>332.5762668227516</v>
@@ -36683,10 +36683,10 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327296</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O27" t="n">
-        <v>460.0739271306256</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.2059290193557</v>
+        <v>97.13946846908439</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414976</v>
+        <v>273.0592195912263</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817348</v>
+        <v>397.8063330314635</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895098</v>
+        <v>428.4277933392384</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010906</v>
+        <v>424.3851781508193</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908712</v>
+        <v>377.9129626405998</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553058</v>
+        <v>303.5868735050345</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.450299564158</v>
+        <v>134.3838390138867</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.0635279116842</v>
+        <v>313.1498943067475</v>
       </c>
       <c r="K29" t="n">
         <v>433.5251384721831</v>
@@ -36911,28 +36911,28 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L30" t="n">
-        <v>86.05397602152078</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M30" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327296</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O30" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193557</v>
+        <v>97.13946846908439</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414976</v>
+        <v>273.0592195912263</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817348</v>
+        <v>397.8063330314635</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895098</v>
+        <v>428.4277933392384</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010906</v>
+        <v>424.3851781508193</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908712</v>
+        <v>377.9129626405998</v>
       </c>
       <c r="P31" t="n">
-        <v>307.6533340553058</v>
+        <v>303.5868735050345</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.450299564158</v>
+        <v>134.3838390138867</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
-        <v>243.9752689901968</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
-        <v>583.6922706327296</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O33" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L36" t="n">
-        <v>454.9327861733078</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M36" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6922706327296</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O36" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P36" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.2059290193559</v>
+        <v>101.205929019356</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414979</v>
       </c>
       <c r="L37" t="n">
         <v>401.872793581735</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895099</v>
+        <v>432.49425388951</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908714</v>
       </c>
       <c r="P37" t="n">
-        <v>307.653334055306</v>
+        <v>307.6533340553061</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641583</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L39" t="n">
-        <v>454.9327861733077</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M39" t="n">
         <v>554.4630955659486</v>
@@ -37637,10 +37637,10 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>81.45993426216013</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>454.9327861733078</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659486</v>
@@ -37871,10 +37871,10 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L43" t="n">
         <v>401.8727935817349</v>
@@ -38175,7 +38175,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L46" t="n">
         <v>401.8727935817349</v>
